--- a/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.98790431581592</v>
+        <v>5.084811666666667</v>
       </c>
       <c r="H2">
-        <v>2.98790431581592</v>
+        <v>15.254435</v>
       </c>
       <c r="I2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="J2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N2">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.452054856850768</v>
+        <v>4.277411371488888</v>
       </c>
       <c r="R2">
-        <v>2.452054856850768</v>
+        <v>38.4967023434</v>
       </c>
       <c r="S2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
       <c r="T2">
-        <v>0.3840292719969346</v>
+        <v>0.5108142255059609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.66724666461404</v>
+        <v>2.689016666666667</v>
       </c>
       <c r="H3">
-        <v>2.66724666461404</v>
+        <v>8.06705</v>
       </c>
       <c r="I3">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="J3">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N3">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.188903809190388</v>
+        <v>2.262036673555555</v>
       </c>
       <c r="R3">
-        <v>2.188903809190388</v>
+        <v>20.358330062</v>
       </c>
       <c r="S3">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
       <c r="T3">
-        <v>0.3428157954811453</v>
+        <v>0.2701354653822224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.12525674807197</v>
+        <v>2.180498333333333</v>
       </c>
       <c r="H4">
-        <v>2.12525674807197</v>
+        <v>6.541495</v>
       </c>
       <c r="I4">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="J4">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.82066043543338</v>
+        <v>0.8412133333333333</v>
       </c>
       <c r="N4">
-        <v>0.82066043543338</v>
+        <v>2.52364</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.744114128280472</v>
+        <v>1.834264271311111</v>
       </c>
       <c r="R4">
-        <v>1.744114128280472</v>
+        <v>16.5083784418</v>
       </c>
       <c r="S4">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
       <c r="T4">
-        <v>0.27315493252192</v>
+        <v>0.2190503091118167</v>
       </c>
     </row>
   </sheetData>
